--- a/Design Files/Products List.xlsx
+++ b/Design Files/Products List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\OneDrive\Documents\GitHub\RobotDog\Design Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Documents\Projects\RobotDog\Design Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBB624-65B3-4D45-B260-845453D0F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE433F-AB93-4B70-A53A-CFB9DD088049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Product</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Prototype Board</t>
+  </si>
+  <si>
+    <t>HC-05 Bluetooth module</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,13 +529,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -540,13 +543,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>6.59</v>
+        <v>3.75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -554,13 +557,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>6.99</v>
+        <v>6.59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -568,13 +571,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>14.99</v>
+        <v>6.99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -582,13 +585,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>11.99</v>
+        <v>14.99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -596,13 +599,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>15.99</v>
+        <v>11.99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -610,13 +613,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>6.99</v>
+        <v>15.99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -624,25 +627,39 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
-        <f>C12+C11+C10+C9+C8+C7+C6+C5+C4+C3+C2</f>
-        <v>105.74000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
+      <c r="C14" s="1">
+        <f>SUM(C2:C13)</f>
+        <v>109.63999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -651,14 +668,15 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{080A4901-2985-42AE-98C4-DA848BA703B3}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{AA85514C-BACD-481E-98DB-25AED3C2D0C7}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{48D9B65D-76EF-45B0-9CAC-B834499A52C6}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{A9377F6E-4BEA-4227-8EA9-BEE55B2A3EFE}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{97A16A44-9DF1-4970-96C9-EA94BD2808E4}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{2443AF49-8888-4872-AA04-A6F594F04C9F}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{FCF14027-A4A8-41C3-9CD4-F44E30AE859D}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{29C86330-FEE4-4497-BF57-6D55ABC8D4C1}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{97DC59C0-4EF1-47D9-95CB-4941DA079AC5}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{D1D65094-30E7-4748-B87D-ACD039EC5D39}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{A9377F6E-4BEA-4227-8EA9-BEE55B2A3EFE}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{97A16A44-9DF1-4970-96C9-EA94BD2808E4}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{2443AF49-8888-4872-AA04-A6F594F04C9F}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{FCF14027-A4A8-41C3-9CD4-F44E30AE859D}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{29C86330-FEE4-4497-BF57-6D55ABC8D4C1}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{97DC59C0-4EF1-47D9-95CB-4941DA079AC5}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{D1D65094-30E7-4748-B87D-ACD039EC5D39}"/>
     <hyperlink ref="D3" r:id="rId11" xr:uid="{C2802ABD-F151-42A8-BFDE-863FF1481D25}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{DEE5ABFA-193E-44CB-8980-C3DD3FA25354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
